--- a/results_temp.xlsx
+++ b/results_temp.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.38690185546875e-05</v>
+        <v>3.409385681152344e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.096725463867188e-05</v>
+        <v>8.106231689453125e-06</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.00543212890625e-05</v>
+        <v>2.908706665039062e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.001358032226562e-05</v>
+        <v>5.006790161132812e-06</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.389617919921875e-05</v>
+        <v>2.789497375488281e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9.059906005859375e-06</v>
+        <v>6.198883056640625e-06</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1961669921875e-05</v>
+        <v>2.813339233398438e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.096725463867188e-05</v>
+        <v>5.960464477539062e-06</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.107589721679688e-05</v>
+        <v>6.914138793945312e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.287460327148438e-05</v>
+        <v>9.059906005859375e-06</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
